--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -175,24 +175,24 @@
     <t>safe</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -205,10 +205,10 @@
     <t>competition</t>
   </si>
   <si>
+    <t>funny</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>funny</t>
   </si>
   <si>
     <t>boost</t>
@@ -2189,25 +2189,25 @@
         <v>53</v>
       </c>
       <c r="K33">
-        <v>0.691304347826087</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L33">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2215,25 +2215,25 @@
         <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6904761904761905</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2241,13 +2241,13 @@
         <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6888888888888889</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L35">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>0.9399999999999999</v>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2267,25 +2267,25 @@
         <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6739130434782609</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2296,22 +2296,22 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2319,13 +2319,13 @@
         <v>58</v>
       </c>
       <c r="K38">
-        <v>0.6666666666666666</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2449,25 +2449,25 @@
         <v>63</v>
       </c>
       <c r="K43">
-        <v>0.6128048780487805</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L43">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2475,13 +2475,13 @@
         <v>64</v>
       </c>
       <c r="K44">
-        <v>0.6086956521739131</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="10:17">
